--- a/relatorios/repasses_liberados/dentistas/09194609411/2023-08-25_relatorio_repasses_09194609411.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09194609411/2023-08-25_relatorio_repasses_09194609411.xlsx
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -16042,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -16262,10 +16262,10 @@
         <v>1</v>
       </c>
       <c r="M337">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N337">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16878,10 +16878,10 @@
         <v>1</v>
       </c>
       <c r="M351">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N351">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -19342,10 +19342,10 @@
         <v>1</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
-        <v>36.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19870,10 +19870,10 @@
         <v>1</v>
       </c>
       <c r="M419">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N419">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -22906,10 +22906,10 @@
         <v>1</v>
       </c>
       <c r="M488">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N488">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:14">
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>1</v>
       </c>
       <c r="M496">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N496">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -23302,10 +23302,10 @@
         <v>0.1</v>
       </c>
       <c r="M497">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N497">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:14">
@@ -23346,10 +23346,10 @@
         <v>0.1</v>
       </c>
       <c r="M498">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N498">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="499" spans="1:14">
@@ -25194,7 +25194,7 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N540">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N541">
         <v>0</v>
@@ -26778,10 +26778,10 @@
         <v>1</v>
       </c>
       <c r="M576">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N576">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N590">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -29242,7 +29242,7 @@
         <v>0</v>
       </c>
       <c r="M632">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N632">
         <v>0</v>
@@ -29902,7 +29902,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -30518,7 +30518,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30562,7 +30562,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30606,7 +30606,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N664">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/09194609411/2023-08-25_relatorio_repasses_09194609411.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09194609411/2023-08-25_relatorio_repasses_09194609411.xlsx
@@ -1522,10 +1522,10 @@
         <v>0.869565</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
-        <v>27.82608</v>
+        <v>20.86956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6450,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N114">
-        <v>6.405</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6582,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N119">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7286,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N133">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7330,10 +7330,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N134">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7374,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8474,10 +8474,10 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N160">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8562,10 +8562,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N162">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8738,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N181">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9530,10 +9530,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9574,10 +9574,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N185">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9662,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N187">
-        <v>5.886</v>
+        <v>7.848000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9706,10 +9706,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N188">
-        <v>5.886</v>
+        <v>7.848000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9750,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
-        <v>3.738</v>
+        <v>4.984000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10718,10 +10718,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N211">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10894,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N215">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10938,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10982,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N217">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N231">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11642,10 +11642,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N232">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12126,10 +12126,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N243">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12434,10 +12434,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N250">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12478,10 +12478,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N251">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12522,10 +12522,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N252">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -13622,10 +13622,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N277">
-        <v>14.88</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13798,10 +13798,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -14194,10 +14194,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N290">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14370,10 +14370,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
-        <v>15.525</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14898,10 +14898,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14986,10 +14986,10 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N308">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -15030,10 +15030,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N309">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15338,10 +15338,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15910,10 +15910,10 @@
         <v>1</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15954,10 +15954,10 @@
         <v>1</v>
       </c>
       <c r="M330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -16262,10 +16262,10 @@
         <v>1</v>
       </c>
       <c r="M337">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N337">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16746,10 +16746,10 @@
         <v>1</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16878,10 +16878,10 @@
         <v>1</v>
       </c>
       <c r="M351">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N351">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N359">
         <v>0</v>
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17582,10 +17582,10 @@
         <v>1</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -18990,10 +18990,10 @@
         <v>1</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19166,10 +19166,10 @@
         <v>1</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -19210,10 +19210,10 @@
         <v>1</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N404">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19342,10 +19342,10 @@
         <v>1</v>
       </c>
       <c r="M407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N407">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19870,10 +19870,10 @@
         <v>1</v>
       </c>
       <c r="M419">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20134,10 +20134,10 @@
         <v>1</v>
       </c>
       <c r="M425">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N425">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -20266,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -20310,10 +20310,10 @@
         <v>1</v>
       </c>
       <c r="M429">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N429">
-        <v>36.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20486,10 +20486,10 @@
         <v>1</v>
       </c>
       <c r="M433">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N433">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -21102,7 +21102,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N448">
         <v>0</v>
@@ -21278,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N451">
         <v>0</v>
@@ -21498,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21630,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
         <v>0</v>
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21762,7 +21762,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -21894,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N465">
         <v>0</v>
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N472">
         <v>0</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N473">
         <v>0</v>
@@ -22334,10 +22334,10 @@
         <v>1</v>
       </c>
       <c r="M475">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N475">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -22686,10 +22686,10 @@
         <v>1</v>
       </c>
       <c r="M483">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N483">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -22774,10 +22774,10 @@
         <v>1</v>
       </c>
       <c r="M485">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N485">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -22906,10 +22906,10 @@
         <v>1</v>
       </c>
       <c r="M488">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="489" spans="1:14">
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23214,7 +23214,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>1</v>
       </c>
       <c r="M496">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N496">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -23302,10 +23302,10 @@
         <v>0.1</v>
       </c>
       <c r="M497">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N497">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="498" spans="1:14">
@@ -23390,10 +23390,10 @@
         <v>1</v>
       </c>
       <c r="M499">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N499">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -23962,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24006,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24270,7 +24270,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N519">
         <v>0</v>
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24710,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N529">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N532">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N533">
         <v>0</v>
@@ -24930,7 +24930,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N541">
         <v>0</v>
@@ -25282,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N542">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25722,7 +25722,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -26030,10 +26030,10 @@
         <v>1</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N559">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -26206,10 +26206,10 @@
         <v>1</v>
       </c>
       <c r="M563">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N563">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -26294,10 +26294,10 @@
         <v>1</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -26602,10 +26602,10 @@
         <v>1</v>
       </c>
       <c r="M572">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N572">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -27086,7 +27086,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N588">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27482,10 +27482,10 @@
         <v>1</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N592">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="593" spans="1:14">
@@ -27702,7 +27702,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N597">
         <v>0</v>
@@ -27922,7 +27922,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         <v>0</v>
       </c>
       <c r="M604">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N604">
         <v>0</v>
@@ -28142,10 +28142,10 @@
         <v>1</v>
       </c>
       <c r="M607">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N607">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:14">
@@ -28318,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -28494,10 +28494,10 @@
         <v>1</v>
       </c>
       <c r="M615">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N615">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28934,10 +28934,10 @@
         <v>1</v>
       </c>
       <c r="M625">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N625">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="626" spans="1:14">
@@ -29110,7 +29110,7 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N629">
         <v>0</v>
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -29418,7 +29418,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -30562,7 +30562,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N664">
         <v>0</v>
